--- a/data/steel/factories/IBF-factory-BFG CCS.xlsx
+++ b/data/steel/factories/IBF-factory-BFG CCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A381DB7E-F2C5-2B4B-8936-927BC7E624C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C582A8-94B8-B549-A17D-C779DD054CB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="62">
   <si>
     <t>Inflow</t>
   </si>
@@ -129,9 +129,6 @@
     <t>o flowtype</t>
   </si>
   <si>
-    <t>fuel</t>
-  </si>
-  <si>
     <t>process_ID</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>simple_oxygen</t>
   </si>
   <si>
-    <t>simple_fuel</t>
-  </si>
-  <si>
     <t>simple_pellets</t>
   </si>
   <si>
@@ -216,13 +210,10 @@
     <t>CO2 Storage</t>
   </si>
   <si>
-    <t>secondary fuel</t>
-  </si>
-  <si>
-    <t>secondary biofuel</t>
-  </si>
-  <si>
-    <t>biofuel</t>
+    <t>simple_casting</t>
+  </si>
+  <si>
+    <t>hot rolled coil</t>
   </si>
 </sst>
 </file>
@@ -638,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -693,21 +684,21 @@
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -721,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -735,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -749,63 +740,49 @@
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -815,10 +792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,25 +857,25 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -906,13 +883,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -921,7 +898,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -932,22 +909,22 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -955,25 +932,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -999,7 +976,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -1007,7 +984,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
@@ -1022,10 +999,10 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
         <v>9</v>
@@ -1051,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
@@ -1077,7 +1054,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
@@ -1103,7 +1080,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
@@ -1129,7 +1106,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
@@ -1155,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
@@ -1163,7 +1140,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -1181,7 +1158,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
@@ -1192,33 +1169,33 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1233,7 +1210,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
@@ -1244,293 +1221,85 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H27" s="1"/>
-      <c r="I27" s="6"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1541,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1568,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1579,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1590,16 +1359,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -1625,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1633,24 +1408,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/steel/factories/IBF-factory-BFG CCS.xlsx
+++ b/data/steel/factories/IBF-factory-BFG CCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C582A8-94B8-B549-A17D-C779DD054CB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC50E70-F0C6-284B-B229-58D5F160E204}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>simple_CO2storage</t>
   </si>
   <si>
-    <t>CO2__stored</t>
-  </si>
-  <si>
     <t>waste heat</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>hot rolled coil</t>
+  </si>
+  <si>
+    <t>stored CO2</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -759,24 +759,24 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -1175,7 +1175,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>47</v>
@@ -1187,12 +1187,12 @@
         <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
@@ -1227,10 +1227,10 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
         <v>48</v>
@@ -1239,15 +1239,15 @@
         <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
@@ -1256,24 +1256,24 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
@@ -1282,10 +1282,10 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
         <v>48</v>
@@ -1294,7 +1294,7 @@
         <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1370,10 +1370,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1414,18 +1414,18 @@
         <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/steel/factories/IBF-factory-BFG CCS.xlsx
+++ b/data/steel/factories/IBF-factory-BFG CCS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC50E70-F0C6-284B-B229-58D5F160E204}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE553F-CACF-1E4D-B524-EE822061768C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="62">
   <si>
     <t>Inflow</t>
   </si>
@@ -792,10 +792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,33 +932,33 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -973,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>36</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
@@ -993,50 +993,50 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1114,15 +1114,15 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1140,108 +1140,108 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
+      <c r="J15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1253,53 +1253,27 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H19" s="1"/>
-      <c r="I19" s="6"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1389,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/data/steel/factories/IBF-factory-BFG CCS.xlsx
+++ b/data/steel/factories/IBF-factory-BFG CCS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\factories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE553F-CACF-1E4D-B524-EE822061768C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="465" windowWidth="26520" windowHeight="16515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="64">
   <si>
     <t>Inflow</t>
   </si>
@@ -214,15 +213,28 @@
   </si>
   <si>
     <t>stored CO2</t>
+  </si>
+  <si>
+    <t>steel scrap (mill)</t>
+  </si>
+  <si>
+    <t>steel scrap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -300,24 +312,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,21 +642,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -659,7 +673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -673,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -687,7 +701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -701,7 +715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -715,7 +729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -729,7 +743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -743,7 +757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -757,7 +771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -771,7 +785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -791,30 +805,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -852,76 +866,79 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
+      <c r="C2" t="s">
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>42</v>
@@ -930,35 +947,35 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
+      <c r="C5" t="s">
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -973,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>36</v>
@@ -982,9 +999,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
@@ -993,50 +1010,50 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -1060,9 +1077,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1086,9 +1103,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1112,17 +1129,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1138,114 +1155,114 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>57</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -1253,49 +1270,98 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H18" s="1"/>
-      <c r="I18" s="6"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1317,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1328,7 +1394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1350,7 +1416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1360,16 +1426,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -1391,7 +1457,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>56</v>
       </c>
@@ -1402,7 +1468,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>

--- a/data/steel/factories/IBF-factory-BFG CCS.xlsx
+++ b/data/steel/factories/IBF-factory-BFG CCS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE62090-9B1D-CD43-BADE-C62AA9FB2B69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="465" windowWidth="26520" windowHeight="16515" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -17,17 +18,23 @@
     <sheet name="steel" sheetId="2" r:id="rId3"/>
     <sheet name="CO2" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="68">
   <si>
     <t>Inflow</t>
   </si>
@@ -219,12 +226,24 @@
   </si>
   <si>
     <t>steel scrap</t>
+  </si>
+  <si>
+    <t>biofuel</t>
+  </si>
+  <si>
+    <t>charcoal</t>
+  </si>
+  <si>
+    <t>simple_charcoal</t>
+  </si>
+  <si>
+    <t>secondary biofuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -331,7 +350,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,21 +661,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -673,7 +692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -687,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -701,7 +720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -715,7 +734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -729,7 +748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -743,7 +762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -757,7 +776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -771,7 +790,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -785,7 +804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -797,6 +816,20 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -805,30 +838,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -866,7 +899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -895,7 +928,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -921,7 +954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -947,7 +980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -973,7 +1006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -999,7 +1032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1025,7 +1058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1051,168 +1084,168 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1233,98 +1266,95 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1337,6 +1367,217 @@
         <v>44</v>
       </c>
       <c r="I19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1347,21 +1588,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1394,7 +1635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1405,7 +1646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1416,7 +1657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1426,16 +1667,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -1457,7 +1698,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>56</v>
       </c>
@@ -1468,7 +1709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
